--- a/templates/F-825-176M CMD-D.L00.00C ALIF-X Final QC Insp Rev 15_final.xlsx
+++ b/templates/F-825-176M CMD-D.L00.00C ALIF-X Final QC Insp Rev 15_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AI Records\Empty Templates\Fake 825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan Nguyen\Desktop\Compare 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BA7F0-B01C-41F7-8151-D49B41289FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5C6116-2E73-4A3C-86A5-6D43E8A96ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,9 +515,6 @@
     <t>{{Item 6}}</t>
   </si>
   <si>
-    <t>{{Item 7}}</t>
-  </si>
-  <si>
     <t>{{Item 8}}</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>{{Job Number}}</t>
+  </si>
+  <si>
+    <t>{{Item7}}</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddmmmyyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,12 +602,6 @@
     </font>
     <font>
       <i/>
-      <sz val="8"/>
-      <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF0070C0"/>
       <name val="Aptos Narrow"/>
@@ -907,7 +901,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,16 +989,19 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,28 +1016,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,37 +1082,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,30 +1124,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,26 +1154,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1208,22 +1196,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1608,7 +1602,7 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:L13"/>
+      <selection activeCell="C3" sqref="C3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="11.7" x14ac:dyDescent="0.45"/>
@@ -1627,246 +1621,246 @@
         <v>51</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="71" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="A2" s="53"/>
       <c r="B2" s="54"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="105" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="115" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="105" t="s">
+      <c r="D4" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="112"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="112"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="105" t="s">
+      <c r="D6" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D7" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="120"/>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="105" t="s">
+      <c r="D8" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="112"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="112"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D10" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="112"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="120"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="120"/>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="112"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="105" t="s">
+      <c r="D11" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="53"/>
-      <c r="C12" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="104"/>
+      <c r="C12" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="120"/>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="56"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2047,11 +2041,11 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
@@ -2077,11 +2071,11 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
@@ -2107,11 +2101,11 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17">
@@ -2137,11 +2131,11 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
@@ -2167,11 +2161,11 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17">
@@ -2197,25 +2191,25 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="81"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="85"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
@@ -2241,11 +2235,11 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17">
@@ -2271,11 +2265,11 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17">
@@ -2301,11 +2295,11 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
@@ -2331,11 +2325,11 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
@@ -2361,11 +2355,11 @@
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
@@ -2391,11 +2385,11 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17">
@@ -2421,11 +2415,11 @@
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17">
@@ -2451,11 +2445,11 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17">
@@ -2481,11 +2475,11 @@
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="50" t="s">
+      <c r="J35" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17">
@@ -2511,11 +2505,11 @@
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17">
@@ -2541,11 +2535,11 @@
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="17">
@@ -2571,95 +2565,95 @@
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="82" t="s">
+      <c r="J38" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="88"/>
     </row>
     <row r="39" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="85"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="87"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="101"/>
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="88"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="89"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="104"/>
     </row>
     <row r="41" spans="1:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="88"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="89"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="104"/>
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="88"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="89"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="104"/>
     </row>
     <row r="43" spans="1:12" s="6" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="88"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="89"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
     </row>
     <row r="44" spans="1:12" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="92"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="107"/>
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
@@ -2685,11 +2679,11 @@
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="82" t="s">
+      <c r="J45" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="K45" s="83"/>
-      <c r="L45" s="84"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="88"/>
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
@@ -2715,11 +2709,11 @@
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="82" t="s">
+      <c r="J46" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="K46" s="83"/>
-      <c r="L46" s="84"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="88"/>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="31"/>
@@ -2746,25 +2740,25 @@
       <c r="D49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="97" t="s">
+      <c r="H49" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="97" t="s">
+      <c r="I49" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="J49" s="97" t="s">
+      <c r="J49" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="K49" s="97" t="s">
+      <c r="K49" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="97" t="s">
+      <c r="L49" s="93" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2774,13 +2768,13 @@
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
     </row>
     <row r="51" spans="2:12" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="35" t="s">
@@ -2788,25 +2782,25 @@
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="13"/>
-      <c r="F51" s="58" t="s">
+      <c r="F51" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="93">
-        <v>1</v>
-      </c>
-      <c r="H51" s="95">
+      <c r="G51" s="89">
+        <v>1</v>
+      </c>
+      <c r="H51" s="91">
         <v>8</v>
       </c>
-      <c r="I51" s="95">
+      <c r="I51" s="91">
         <v>12</v>
       </c>
-      <c r="J51" s="95">
+      <c r="J51" s="91">
         <v>19</v>
       </c>
-      <c r="K51" s="95">
+      <c r="K51" s="91">
         <v>21</v>
       </c>
-      <c r="L51" s="99" t="s">
+      <c r="L51" s="95" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2816,13 +2810,13 @@
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="100"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="96"/>
     </row>
     <row r="53" spans="2:12" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="35" t="s">
@@ -2837,15 +2831,15 @@
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
     </row>
     <row r="55" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B55" s="35" t="s">
@@ -2948,16 +2942,16 @@
       <c r="D67" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
     </row>
     <row r="68" spans="2:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
@@ -2969,16 +2963,16 @@
       <c r="D68" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
     </row>
     <row r="69" spans="2:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="40" t="s">
@@ -2990,16 +2984,16 @@
       <c r="D69" s="42">
         <v>45799</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="2:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="40" t="s">
@@ -3011,16 +3005,16 @@
       <c r="D70" s="43">
         <v>45688</v>
       </c>
-      <c r="E70" s="51" t="s">
+      <c r="E70" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="51"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
     </row>
     <row r="71" spans="2:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="40" t="s">
@@ -3032,16 +3026,16 @@
       <c r="D71" s="43">
         <v>45593</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
     </row>
     <row r="72" spans="2:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="40" t="s">
@@ -3053,16 +3047,16 @@
       <c r="D72" s="43">
         <v>45582</v>
       </c>
-      <c r="E72" s="51" t="s">
+      <c r="E72" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
     </row>
     <row r="73" spans="2:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="44" t="s">
@@ -3074,16 +3068,16 @@
       <c r="D73" s="43">
         <v>45379</v>
       </c>
-      <c r="E73" s="47" t="s">
+      <c r="E73" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
     </row>
     <row r="74" spans="2:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="44" t="s">
@@ -3095,16 +3089,16 @@
       <c r="D74" s="43">
         <v>45365</v>
       </c>
-      <c r="E74" s="47" t="s">
+      <c r="E74" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
     </row>
     <row r="75" spans="2:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="44" t="s">
@@ -3116,16 +3110,16 @@
       <c r="D75" s="46">
         <v>45299</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
     </row>
     <row r="76" spans="2:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="44" t="s">
@@ -3137,16 +3131,16 @@
       <c r="D76" s="46">
         <v>45260</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B85" s="5" t="s">
@@ -3173,16 +3167,16 @@
       <c r="D86" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="101" t="s">
+      <c r="E86" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="102"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="102"/>
-      <c r="I86" s="102"/>
-      <c r="J86" s="102"/>
-      <c r="K86" s="102"/>
-      <c r="L86" s="102"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
+      <c r="I86" s="98"/>
+      <c r="J86" s="98"/>
+      <c r="K86" s="98"/>
+      <c r="L86" s="98"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
@@ -3194,16 +3188,16 @@
       <c r="D87" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E87" s="50" t="s">
+      <c r="E87" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
@@ -3249,7 +3243,14 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A39:L44"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
     <mergeCell ref="A3:B11"/>
     <mergeCell ref="E3:E11"/>
     <mergeCell ref="F3:H11"/>
@@ -3276,45 +3277,38 @@
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="K49:K50"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="A39:L44"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="E74:L74"/>
     <mergeCell ref="E67:L67"/>
     <mergeCell ref="E68:L68"/>
@@ -3850,7 +3844,7 @@
     <row r="66" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="67" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
